--- a/Curricullam/FSD Curriculum (UpDated).xlsx
+++ b/Curricullam/FSD Curriculum (UpDated).xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet r:id="rId3" sheetId="3" name="Sheet3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1165,8 +1165,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,17 +1178,19 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Lato"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Lato"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1201,14 +1204,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF00ff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1237,7 +1238,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1258,7 +1259,35 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFcccccc"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFcccccc"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1291,158 +1320,129 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFcccccc"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="32">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1451,10 +1451,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1492,69 +1492,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1578,54 +1580,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1635,7 +1636,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1644,7 +1645,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1653,7 +1654,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1661,10 +1662,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1693,7 +1694,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1706,13 +1707,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1730,2293 +1730,2300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" style="29" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="30" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="29" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="36.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="31" width="21.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="141" thickBot="1">
-      <c r="A2" s="14">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="108.75" customFormat="1" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="217.5" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="20">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="165.75" customFormat="1" s="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="217.5" thickBot="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="20">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="200.25" customFormat="1" s="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="281.25" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="20">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="222.75" customFormat="1" s="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="191.25" customHeight="1" thickBot="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="20">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="120.75" customFormat="1" s="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="153.75" thickBot="1">
-      <c r="A7" s="14">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="75" customFormat="1" s="1">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="128.25" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="20">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="97.5" customFormat="1" s="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="102.75" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="97.5" customFormat="1" s="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="102.75" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="97.5" customFormat="1" s="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="141" thickBot="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="20">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="120.75" customFormat="1" s="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="115.5" thickBot="1">
-      <c r="A12" s="14">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="108.75" customFormat="1" s="1">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" ht="128.25" thickBot="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="20">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="97.5" customFormat="1" s="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="128.25" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="20">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="86.25" customFormat="1" s="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="102.75" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="20">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="97.5" customFormat="1" s="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="102.75" thickBot="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="20">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="97.5" customFormat="1" s="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="90" thickBot="1">
-      <c r="A17" s="14">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="86.25" customFormat="1" s="1">
+      <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" ht="51.75" thickBot="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="20">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="51.75" thickBot="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="20">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="115.5" thickBot="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="20">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="102.75" thickBot="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="20">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="7">
         <v>5</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A22" s="14">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" ht="78" thickBot="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="20">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" ht="52.5" thickBot="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="52.5" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="20">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="39.75" thickBot="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="20">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A27" s="14">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A27" s="5">
         <v>6</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="16">
         <v>1</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" ht="78" thickBot="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="20">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="20">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7">
         <v>3</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="78" thickBot="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="20">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="20">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="77.25" thickBot="1">
-      <c r="A32" s="14">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A32" s="5">
         <v>7</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="16">
         <v>1</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" ht="153.75" thickBot="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="20">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="90" thickBot="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="20">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="90" thickBot="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="20">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="90" thickBot="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="20">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="7">
         <v>5</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="14">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75" customFormat="1" s="1">
+      <c r="A37" s="5">
         <v>8</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="16">
         <v>1</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8" ht="51.75" thickBot="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="20">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="51.75" thickBot="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="20">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7">
         <v>3</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="39" thickBot="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="20">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="7">
         <v>4</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="51.75" thickBot="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="20">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="7">
         <v>5</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="27" thickBot="1">
-      <c r="A42" s="17">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="5">
         <v>9</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="16">
         <v>1</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-    </row>
-    <row r="43" spans="1:8" ht="27" thickBot="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="10">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="7">
         <v>2</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="10">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="7">
         <v>3</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="10">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="7">
         <v>4</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" ht="52.5" thickBot="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="10">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="7">
         <v>5</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="116.25" thickBot="1">
-      <c r="A47" s="17">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A47" s="5">
         <v>10</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="16">
         <v>1</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-    </row>
-    <row r="48" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="10">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="7">
         <v>2</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="10">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="7">
         <v>3</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="78" thickBot="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="10">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7">
         <v>4</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="10">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="7">
         <v>5</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="180" thickBot="1">
-      <c r="A52" s="17">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A52" s="5">
         <v>11</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="16">
         <v>1</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-    </row>
-    <row r="53" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="10">
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="7">
         <v>2</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="10">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="7">
         <v>3</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="10">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="7">
         <v>4</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="10">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="7">
         <v>5</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" ht="116.25" thickBot="1">
-      <c r="A57" s="17">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A57" s="5">
         <v>12</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="16">
         <v>1</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-    </row>
-    <row r="58" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="10">
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="7">
         <v>2</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" ht="78" thickBot="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="10">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="7">
         <v>3</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" ht="52.5" thickBot="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="10">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="7">
         <v>4</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="10">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="7">
         <v>5</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" ht="27" thickBot="1">
-      <c r="A62" s="10">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A62" s="7">
         <v>13</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="28" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-    </row>
-    <row r="64" spans="1:8" ht="54" customHeight="1" thickBot="1">
-      <c r="A64" s="17">
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="54" customFormat="1" s="1">
+      <c r="A64" s="5">
         <v>14</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="7">
         <v>1</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" ht="78" thickBot="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="10">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="7">
         <v>2</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="10">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="7">
         <v>3</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="10">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="7">
         <v>4</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8" ht="78" thickBot="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="10">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="7">
         <v>5</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8" ht="54" customHeight="1" thickBot="1">
-      <c r="A69" s="17">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="54" customFormat="1" s="1">
+      <c r="A69" s="5">
         <v>15</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="16">
         <v>1</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-    </row>
-    <row r="70" spans="1:8" ht="39.75" thickBot="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="10">
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="7">
         <v>2</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="10">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="7">
         <v>3</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="10">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="7">
         <v>4</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="10">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="7">
         <v>5</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:8" ht="78" thickBot="1">
-      <c r="A74" s="17">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A74" s="5">
         <v>16</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="27">
+      <c r="C74" s="16">
         <v>1</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="28" t="s">
+      <c r="E74" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-    </row>
-    <row r="75" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="10">
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="7">
         <v>2</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8" ht="78" thickBot="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="10">
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="7">
         <v>3</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8" ht="78" thickBot="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="10">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="7">
         <v>4</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="10">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="7">
         <v>5</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A79" s="17">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A79" s="5">
         <v>17</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="16">
         <v>1</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-    </row>
-    <row r="80" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="10">
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="7">
         <v>2</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="10">
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="7">
         <v>3</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="10">
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="7">
         <v>4</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-    </row>
-    <row r="83" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="10">
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="7">
         <v>5</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-    </row>
-    <row r="84" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A84" s="17">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A84" s="5">
         <v>18</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="27">
+      <c r="C84" s="16">
         <v>1</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-    </row>
-    <row r="85" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="10">
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="7">
         <v>2</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="10">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="7">
         <v>3</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="10">
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="7">
         <v>4</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-    </row>
-    <row r="88" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="10">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="7">
         <v>5</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A89" s="17">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A89" s="5">
         <v>19</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="16">
         <v>1</v>
       </c>
-      <c r="D89" s="33" t="s">
+      <c r="D89" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-    </row>
-    <row r="90" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="10">
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="7">
         <v>2</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="10">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="7">
         <v>3</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" ht="39.75" thickBot="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="10">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="7">
         <v>4</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8" ht="78" thickBot="1">
-      <c r="A93" s="19"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="10">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="7">
         <v>5</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8" ht="78" thickBot="1">
-      <c r="A94" s="17">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A94" s="5">
         <v>20</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="27">
+      <c r="C94" s="16">
         <v>1</v>
       </c>
-      <c r="D94" s="33" t="s">
+      <c r="D94" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-    </row>
-    <row r="95" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="10">
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="7">
         <v>2</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8" ht="78" thickBot="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="10">
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="7">
         <v>3</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="10">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="7">
         <v>4</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="10">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="7">
         <v>5</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A99" s="17">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A99" s="5">
         <v>21</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C99" s="27">
+      <c r="C99" s="16">
         <v>1</v>
       </c>
-      <c r="D99" s="29" t="s">
+      <c r="D99" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E99" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-    </row>
-    <row r="100" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="10">
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="7">
         <v>2</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8" ht="52.5" thickBot="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="10">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="7">
         <v>3</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="1:8" ht="78" thickBot="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="10">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="7">
         <v>4</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8" ht="78" thickBot="1">
-      <c r="A103" s="19"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="10">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="7">
         <v>5</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-    </row>
-    <row r="104" spans="1:8" ht="52.5" thickBot="1">
-      <c r="A104" s="17">
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A104" s="5">
         <v>22</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="27">
+      <c r="C104" s="16">
         <v>1</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D104" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="E104" s="28" t="s">
+      <c r="E104" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-    </row>
-    <row r="105" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="10">
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="7">
         <v>2</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="10">
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="7">
         <v>3</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" ht="65.25" thickBot="1">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="10">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="7">
         <v>4</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A108" s="19"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="10">
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="7">
         <v>5</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8" ht="103.5" thickBot="1">
-      <c r="A109" s="17">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A109" s="5">
         <v>23</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109" s="16">
         <v>1</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="D109" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="E109" s="28" t="s">
+      <c r="E109" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-    </row>
-    <row r="110" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A110" s="18"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="10">
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="7">
         <v>2</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A111" s="18"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="10">
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="7">
         <v>3</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8" ht="116.25" thickBot="1">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="10">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="7">
         <v>4</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="1:8" ht="129" thickBot="1">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="10">
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="7">
         <v>5</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A114" s="17">
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A114" s="5">
         <v>24</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="16">
         <v>1</v>
       </c>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="10">
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="7">
         <v>2</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A116" s="18"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="10">
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="7">
         <v>3</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="10">
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="7">
         <v>4</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A118" s="19"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="10">
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="7">
         <v>5</v>
       </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A119" s="17">
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A119" s="5">
         <v>25</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="7">
         <v>1</v>
       </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A120" s="18"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="10">
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="7">
         <v>2</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A121" s="18"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="10">
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="7">
         <v>3</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A122" s="18"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="10">
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="7">
         <v>4</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A123" s="19"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="10">
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="7">
         <v>5</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A124" s="17">
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A124" s="5">
         <v>26</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="7">
         <v>1</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="10">
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="7">
         <v>2</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="10">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="7">
         <v>3</v>
       </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="10">
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="7">
         <v>4</v>
       </c>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A128" s="19"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="10">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="7">
         <v>5</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A129" s="17">
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A129" s="5">
         <v>27</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="7">
         <v>1</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="10">
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="7">
         <v>2</v>
       </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="10">
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A131" s="11"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="7">
         <v>3</v>
       </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="10">
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="7">
         <v>4</v>
       </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A133" s="19"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="10">
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="7">
         <v>5</v>
       </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
     <mergeCell ref="A109:A113"/>
     <mergeCell ref="B109:B113"/>
     <mergeCell ref="A114:A118"/>
     <mergeCell ref="B114:B118"/>
     <mergeCell ref="A119:A123"/>
     <mergeCell ref="B119:B123"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Curricullam/FSD Curriculum (UpDated).xlsx
+++ b/Curricullam/FSD Curriculum (UpDated).xlsx
@@ -2082,7 +2082,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="51.75" customFormat="1" s="1">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7">
@@ -2098,7 +2098,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="51.75" customFormat="1" s="1">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7">
@@ -2114,7 +2114,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="97.5" customFormat="1" s="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7">
@@ -2130,7 +2130,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="97.5" customFormat="1" s="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="7">
@@ -2146,7 +2146,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="63.75" customFormat="1" s="1">
       <c r="A22" s="5">
         <v>5</v>
       </c>
